--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/assert-web-elements/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E1C9F-EC2A-664C-A301-B94FA5E51276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{964E1C9F-EC2A-664C-A301-B94FA5E51276}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -1630,12 +1630,19 @@
   <si>
     <t>$(syspath|out|fullpath)/hotels.com-registration.txt</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1712,8 +1719,210 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,8 +1941,348 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1771,148 +2320,808 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="69">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1946,7 +3155,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1971,10 +3180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2009,7 +3218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2044,7 +3253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2138,21 +3347,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2169,7 +3378,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2221,26 +3430,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD127"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +3538,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -2418,7 +3627,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -2501,7 +3710,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -2581,7 +3790,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +3858,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2711,7 +3920,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2767,7 +3976,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2820,7 +4029,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2864,7 +4073,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -2902,7 +4111,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2937,7 +4146,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -2972,7 +4181,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3007,7 +4216,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>475</v>
       </c>
@@ -3042,7 +4251,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -3074,7 +4283,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3106,7 +4315,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>237</v>
       </c>
@@ -3129,7 +4338,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3149,7 +4358,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>394</v>
       </c>
@@ -3169,7 +4378,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -3189,7 +4398,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>411</v>
       </c>
@@ -3209,7 +4418,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>355</v>
       </c>
@@ -3226,7 +4435,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>395</v>
       </c>
@@ -3243,7 +4452,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -3260,7 +4469,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3277,7 +4486,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3294,7 +4503,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3311,7 +4520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -3328,7 +4537,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -3342,7 +4551,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="E30" t="s">
         <v>414</v>
       </c>
@@ -3353,7 +4562,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>64</v>
       </c>
@@ -3364,7 +4573,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>65</v>
       </c>
@@ -3375,7 +4584,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>66</v>
       </c>
@@ -3386,7 +4595,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>67</v>
       </c>
@@ -3397,7 +4606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>68</v>
       </c>
@@ -3408,7 +4617,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>69</v>
       </c>
@@ -3419,7 +4628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>70</v>
       </c>
@@ -3430,7 +4639,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>71</v>
       </c>
@@ -3441,7 +4650,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>265</v>
       </c>
@@ -3449,7 +4658,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>78</v>
       </c>
@@ -3457,7 +4666,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>210</v>
       </c>
@@ -3465,7 +4674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>287</v>
       </c>
@@ -3473,7 +4682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>298</v>
       </c>
@@ -3481,7 +4690,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>299</v>
       </c>
@@ -3489,7 +4698,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>341</v>
       </c>
@@ -3497,7 +4706,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>340</v>
       </c>
@@ -3505,7 +4714,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>209</v>
       </c>
@@ -3513,7 +4722,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>318</v>
       </c>
@@ -3521,7 +4730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>337</v>
       </c>
@@ -3529,7 +4738,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>366</v>
       </c>
@@ -3537,7 +4746,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>300</v>
       </c>
@@ -3545,7 +4754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>354</v>
       </c>
@@ -3553,7 +4762,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>329</v>
       </c>
@@ -3561,7 +4770,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>266</v>
       </c>
@@ -3569,7 +4778,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>290</v>
       </c>
@@ -3577,7 +4786,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>291</v>
       </c>
@@ -3585,7 +4794,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>292</v>
       </c>
@@ -3593,7 +4802,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>301</v>
       </c>
@@ -3601,7 +4810,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>310</v>
       </c>
@@ -3609,7 +4818,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>335</v>
       </c>
@@ -3617,7 +4826,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>307</v>
       </c>
@@ -3625,7 +4834,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>308</v>
       </c>
@@ -3633,7 +4842,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>367</v>
       </c>
@@ -3641,7 +4850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>368</v>
       </c>
@@ -3649,7 +4858,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>343</v>
       </c>
@@ -3657,7 +4866,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>311</v>
       </c>
@@ -3665,7 +4874,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>267</v>
       </c>
@@ -3673,7 +4882,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>351</v>
       </c>
@@ -3681,7 +4890,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>312</v>
       </c>
@@ -3689,7 +4898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>408</v>
       </c>
@@ -3697,7 +4906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>302</v>
       </c>
@@ -3705,7 +4914,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>409</v>
       </c>
@@ -3713,7 +4922,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>260</v>
       </c>
@@ -3721,7 +4930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>506</v>
       </c>
@@ -3729,7 +4938,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>342</v>
       </c>
@@ -3737,7 +4946,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>278</v>
       </c>
@@ -3745,7 +4954,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>284</v>
       </c>
@@ -3753,7 +4962,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>289</v>
       </c>
@@ -3761,7 +4970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>427</v>
       </c>
@@ -3769,7 +4978,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>330</v>
       </c>
@@ -3777,7 +4986,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>268</v>
       </c>
@@ -3785,7 +4994,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>279</v>
       </c>
@@ -3793,7 +5002,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>285</v>
       </c>
@@ -3801,7 +5010,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>274</v>
       </c>
@@ -3809,7 +5018,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>269</v>
       </c>
@@ -3817,7 +5026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>286</v>
       </c>
@@ -3825,7 +5034,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>270</v>
       </c>
@@ -3833,7 +5042,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>271</v>
       </c>
@@ -3841,7 +5050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>303</v>
       </c>
@@ -3849,7 +5058,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>309</v>
       </c>
@@ -3857,7 +5066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>293</v>
       </c>
@@ -3865,7 +5074,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>338</v>
       </c>
@@ -3873,7 +5082,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
         <v>275</v>
       </c>
@@ -3881,7 +5090,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
         <v>276</v>
       </c>
@@ -3889,194 +5098,204 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="X95" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="X96" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="X97" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="X98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="X99" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="X100" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="X101" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="X102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X102" t="s">
+    <row r="103">
+      <c r="X103" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="X104" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X123" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X124" t="s">
+    <row r="126">
+      <c r="X126" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X125" t="s">
+    <row r="127">
+      <c r="X127" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="70" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="25.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="39.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="54.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="70.0" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +5326,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
@@ -4128,7 +5347,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4145,7 +5364,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -4190,7 +5409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>507</v>
       </c>
@@ -4215,7 +5434,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>513</v>
@@ -4240,7 +5459,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row ht="128" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>514</v>
@@ -4269,7 +5488,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4294,7 +5513,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row ht="30" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>515</v>
@@ -4319,7 +5538,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -4336,7 +5555,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -4353,7 +5572,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -4370,7 +5589,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4387,7 +5606,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4404,7 +5623,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4421,7 +5640,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4438,7 +5657,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4455,7 +5674,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4472,7 +5691,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4489,7 +5708,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4506,7 +5725,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4523,7 +5742,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4540,7 +5759,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4557,7 +5776,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4574,7 +5793,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4591,7 +5810,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4608,7 +5827,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4625,7 +5844,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -4642,7 +5861,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4659,7 +5878,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -4676,7 +5895,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4693,7 +5912,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4710,7 +5929,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4727,7 +5946,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4744,7 +5963,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4761,7 +5980,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4778,7 +5997,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4795,7 +6014,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4812,7 +6031,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4829,7 +6048,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4846,7 +6065,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4863,7 +6082,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4880,7 +6099,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4897,7 +6116,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4914,7 +6133,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4931,7 +6150,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4948,7 +6167,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4965,7 +6184,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4982,7 +6201,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4999,7 +6218,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5016,7 +6235,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5033,7 +6252,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5050,7 +6269,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5067,7 +6286,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5084,7 +6303,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5101,7 +6320,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5118,7 +6337,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5135,7 +6354,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5152,7 +6371,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5169,7 +6388,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5186,7 +6405,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5203,7 +6422,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5220,7 +6439,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5237,7 +6456,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5254,7 +6473,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5271,7 +6490,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5288,7 +6507,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5305,7 +6524,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5322,7 +6541,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5339,7 +6558,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5356,7 +6575,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5373,7 +6592,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5390,7 +6609,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5407,7 +6626,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5424,7 +6643,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5441,7 +6660,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5458,7 +6677,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5475,7 +6694,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5492,7 +6711,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5509,7 +6728,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5526,7 +6745,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5543,7 +6762,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5560,7 +6779,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5577,7 +6796,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5594,7 +6813,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5611,7 +6830,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5628,7 +6847,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5645,7 +6864,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5662,7 +6881,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5679,7 +6898,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5696,7 +6915,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5713,7 +6932,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5730,7 +6949,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5747,7 +6966,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5764,7 +6983,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5781,7 +7000,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5798,7 +7017,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5815,7 +7034,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5832,7 +7051,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5849,7 +7068,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5866,7 +7085,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5883,7 +7102,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5900,7 +7119,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5917,7 +7136,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5934,7 +7153,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5951,7 +7170,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5968,7 +7187,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5985,7 +7204,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6002,7 +7221,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6019,7 +7238,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6036,7 +7255,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6053,7 +7272,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6070,7 +7289,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6087,7 +7306,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6104,7 +7323,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6121,7 +7340,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6138,7 +7357,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6155,7 +7374,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6172,7 +7391,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6189,7 +7408,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6206,7 +7425,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6223,7 +7442,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6240,7 +7459,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6257,7 +7476,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6274,7 +7493,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6291,7 +7510,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6308,7 +7527,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6325,7 +7544,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6342,7 +7561,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6359,7 +7578,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6376,7 +7595,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6393,7 +7612,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6410,7 +7629,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6427,7 +7646,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6444,7 +7663,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6461,7 +7680,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6478,7 +7697,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6495,7 +7714,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6512,7 +7731,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6529,7 +7748,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6546,7 +7765,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6563,7 +7782,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6580,7 +7799,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6597,7 +7816,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6614,7 +7833,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6631,7 +7850,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6648,7 +7867,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6665,7 +7884,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6682,7 +7901,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6699,7 +7918,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6716,7 +7935,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6733,7 +7952,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6750,7 +7969,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6767,7 +7986,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6784,7 +8003,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6801,7 +8020,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6818,7 +8037,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6835,7 +8054,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6852,7 +8071,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6869,7 +8088,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6886,7 +8105,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6903,7 +8122,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6920,7 +8139,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6937,7 +8156,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6954,7 +8173,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6971,7 +8190,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6988,7 +8207,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7005,7 +8224,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7022,7 +8241,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7039,7 +8258,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7056,7 +8275,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7073,7 +8292,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7090,7 +8309,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7107,7 +8326,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7124,7 +8343,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7141,7 +8360,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7158,7 +8377,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7175,7 +8394,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7192,7 +8411,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7209,7 +8428,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7226,7 +8445,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7243,7 +8462,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7260,7 +8479,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7277,7 +8496,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7294,7 +8513,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7311,7 +8530,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7328,7 +8547,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7345,7 +8564,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7362,7 +8581,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7379,7 +8598,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7396,7 +8615,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7413,7 +8632,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7430,7 +8649,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7447,7 +8666,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7464,7 +8683,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7481,7 +8700,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7498,7 +8717,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7515,7 +8734,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7532,7 +8751,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7549,7 +8768,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7566,7 +8785,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7583,7 +8802,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7600,7 +8819,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7617,7 +8836,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7634,7 +8853,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7651,7 +8870,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7668,7 +8887,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7685,7 +8904,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7702,7 +8921,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7719,7 +8938,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7736,7 +8955,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7753,7 +8972,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7770,7 +8989,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7787,7 +9006,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7804,7 +9023,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7821,7 +9040,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7838,7 +9057,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7855,7 +9074,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7872,7 +9091,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7889,7 +9108,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7906,7 +9125,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7923,7 +9142,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7940,7 +9159,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7957,7 +9176,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7974,7 +9193,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7991,7 +9210,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8008,7 +9227,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8025,7 +9244,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8042,7 +9261,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8059,7 +9278,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8076,7 +9295,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8093,7 +9312,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8110,7 +9329,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8127,7 +9346,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8144,7 +9363,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8161,7 +9380,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8178,7 +9397,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8195,7 +9414,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8212,7 +9431,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8229,7 +9448,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8246,7 +9465,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8263,7 +9482,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8280,7 +9499,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8297,7 +9516,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8314,7 +9533,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8331,7 +9550,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8348,7 +9567,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8365,7 +9584,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8382,7 +9601,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8399,7 +9618,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8416,7 +9635,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8433,7 +9652,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8450,7 +9669,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8467,7 +9686,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8484,7 +9703,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8501,7 +9720,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8518,7 +9737,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8535,7 +9754,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8552,7 +9771,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8569,7 +9788,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8586,7 +9805,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8603,7 +9822,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8620,7 +9839,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8637,7 +9856,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8654,7 +9873,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8671,7 +9890,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8688,7 +9907,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8705,7 +9924,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8722,7 +9941,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8739,7 +9958,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8756,7 +9975,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8773,7 +9992,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8790,7 +10009,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8807,7 +10026,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8824,7 +10043,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8841,7 +10060,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8858,7 +10077,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8875,7 +10094,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8892,7 +10111,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8909,7 +10128,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8926,7 +10145,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8943,7 +10162,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8960,7 +10179,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8977,7 +10196,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8994,7 +10213,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9011,7 +10230,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9028,7 +10247,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9045,7 +10264,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9062,7 +10281,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9079,7 +10298,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9096,7 +10315,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9113,7 +10332,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9130,7 +10349,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9147,7 +10366,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9164,7 +10383,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9181,7 +10400,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9198,7 +10417,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9215,7 +10434,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9232,7 +10451,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9249,7 +10468,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9266,7 +10485,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9283,7 +10502,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9300,7 +10519,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9317,7 +10536,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9334,7 +10553,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9351,7 +10570,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9368,7 +10587,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9385,7 +10604,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9402,7 +10621,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9419,7 +10638,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9436,7 +10655,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9453,7 +10672,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9470,7 +10689,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9487,7 +10706,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9504,7 +10723,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9521,7 +10740,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9538,7 +10757,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9555,7 +10774,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9572,7 +10791,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9589,7 +10808,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9606,7 +10825,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9623,7 +10842,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9640,7 +10859,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9657,7 +10876,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9674,7 +10893,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9691,7 +10910,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9708,7 +10927,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9725,7 +10944,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9742,7 +10961,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9759,7 +10978,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9776,7 +10995,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9793,7 +11012,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9810,7 +11029,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9827,7 +11046,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9844,7 +11063,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9861,7 +11080,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9878,7 +11097,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9895,7 +11114,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9912,7 +11131,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9929,7 +11148,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9946,7 +11165,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9963,7 +11182,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9980,7 +11199,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9997,7 +11216,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -10014,7 +11233,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -10031,7 +11250,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -10048,7 +11267,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -10065,7 +11284,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -10082,7 +11301,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -10099,7 +11318,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -10116,7 +11335,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -10133,7 +11352,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -10150,7 +11369,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10167,7 +11386,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10184,7 +11403,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10201,7 +11420,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10218,7 +11437,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10235,7 +11454,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10252,7 +11471,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10269,7 +11488,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10286,7 +11505,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10303,7 +11522,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10320,7 +11539,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10337,7 +11556,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10354,7 +11573,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10371,7 +11590,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10388,7 +11607,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10405,7 +11624,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10422,7 +11641,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10439,7 +11658,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10456,7 +11675,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10473,7 +11692,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10490,7 +11709,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10507,7 +11726,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10524,7 +11743,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10541,7 +11760,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10558,7 +11777,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10575,7 +11794,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10592,7 +11811,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10609,7 +11828,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10626,7 +11845,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10643,7 +11862,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10660,7 +11879,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10677,7 +11896,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10694,7 +11913,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10711,7 +11930,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10728,7 +11947,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10745,7 +11964,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10762,7 +11981,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10779,7 +11998,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10796,7 +12015,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10813,7 +12032,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10830,7 +12049,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10847,7 +12066,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10864,7 +12083,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10881,7 +12100,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10898,7 +12117,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10915,7 +12134,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10932,7 +12151,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10949,7 +12168,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10966,7 +12185,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10983,7 +12202,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -11000,7 +12219,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -11017,7 +12236,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -11034,7 +12253,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -11051,7 +12270,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -11068,7 +12287,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -11085,7 +12304,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -11102,7 +12321,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -11119,7 +12338,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -11136,7 +12355,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -11153,7 +12372,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11170,7 +12389,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11187,7 +12406,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11204,7 +12423,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11221,7 +12440,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11238,7 +12457,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11255,7 +12474,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11272,7 +12491,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11289,7 +12508,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11306,7 +12525,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11323,7 +12542,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11340,7 +12559,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11357,7 +12576,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11374,7 +12593,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11391,7 +12610,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11408,7 +12627,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11425,7 +12644,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11442,7 +12661,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11459,7 +12678,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11476,7 +12695,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11493,7 +12712,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11510,7 +12729,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11527,7 +12746,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11544,7 +12763,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11561,7 +12780,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11578,7 +12797,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11595,7 +12814,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11612,7 +12831,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11629,7 +12848,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11646,7 +12865,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11663,7 +12882,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11680,7 +12899,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11697,7 +12916,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11714,7 +12933,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11731,7 +12950,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11748,7 +12967,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11765,7 +12984,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11782,7 +13001,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11799,7 +13018,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11816,7 +13035,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11833,7 +13052,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11850,7 +13069,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11867,7 +13086,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11884,7 +13103,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11901,7 +13120,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11918,7 +13137,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11935,7 +13154,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11952,7 +13171,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11969,7 +13188,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11986,7 +13205,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -12003,7 +13222,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -12020,7 +13239,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -12037,7 +13256,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -12054,7 +13273,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -12071,7 +13290,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -12088,7 +13307,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -12105,7 +13324,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -12122,7 +13341,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -12139,7 +13358,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -12156,7 +13375,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12173,7 +13392,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12190,7 +13409,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12207,7 +13426,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12224,7 +13443,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12241,7 +13460,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12258,7 +13477,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12275,7 +13494,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12292,7 +13511,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12309,7 +13528,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12326,7 +13545,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12343,7 +13562,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12360,7 +13579,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12377,7 +13596,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12394,7 +13613,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12411,7 +13630,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12428,7 +13647,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12445,7 +13664,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12462,7 +13681,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12479,7 +13698,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12496,7 +13715,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12513,7 +13732,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12530,7 +13749,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12547,7 +13766,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12564,7 +13783,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12581,7 +13800,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12598,7 +13817,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12615,7 +13834,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12632,7 +13851,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12649,7 +13868,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12666,7 +13885,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12683,7 +13902,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12700,7 +13919,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12717,7 +13936,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12734,7 +13953,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12751,7 +13970,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12768,7 +13987,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12785,7 +14004,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12802,7 +14021,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12819,7 +14038,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12836,7 +14055,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12853,7 +14072,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12870,7 +14089,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12887,7 +14106,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12904,7 +14123,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12921,7 +14140,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12938,7 +14157,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12955,7 +14174,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12972,7 +14191,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12989,7 +14208,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -13006,7 +14225,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -13023,7 +14242,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -13040,7 +14259,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -13057,7 +14276,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -13074,7 +14293,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -13091,7 +14310,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -13108,7 +14327,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -13125,7 +14344,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -13142,7 +14361,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -13159,7 +14378,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13176,7 +14395,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13193,7 +14412,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13210,7 +14429,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13227,7 +14446,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13244,7 +14463,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13261,7 +14480,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13278,7 +14497,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13295,7 +14514,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13312,7 +14531,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13329,7 +14548,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13346,7 +14565,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13363,7 +14582,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13380,7 +14599,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13397,7 +14616,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13414,7 +14633,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13431,7 +14650,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13448,7 +14667,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13465,7 +14684,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13482,7 +14701,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13499,7 +14718,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13516,7 +14735,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13533,7 +14752,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13550,7 +14769,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13567,7 +14786,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13584,7 +14803,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13601,7 +14820,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13618,7 +14837,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13635,7 +14854,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13652,7 +14871,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13669,7 +14888,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13686,7 +14905,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13703,7 +14922,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13720,7 +14939,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13737,7 +14956,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13754,7 +14973,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13771,7 +14990,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13788,7 +15007,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13805,7 +15024,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13822,7 +15041,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13839,7 +15058,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13856,7 +15075,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13873,7 +15092,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13890,7 +15109,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13907,7 +15126,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13924,7 +15143,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13941,7 +15160,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13958,7 +15177,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13975,7 +15194,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13992,7 +15211,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -14009,7 +15228,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -14026,7 +15245,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -14043,7 +15262,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -14060,7 +15279,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -14077,7 +15296,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -14094,7 +15313,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -14111,7 +15330,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -14128,7 +15347,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -14145,7 +15364,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -14162,7 +15381,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14179,7 +15398,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14196,7 +15415,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14213,7 +15432,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14230,7 +15449,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14247,7 +15466,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14264,7 +15483,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14281,7 +15500,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14298,7 +15517,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14315,7 +15534,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14332,7 +15551,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14349,7 +15568,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14366,7 +15585,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14383,7 +15602,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14400,7 +15619,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14417,7 +15636,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14434,7 +15653,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14451,7 +15670,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14468,7 +15687,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14485,7 +15704,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14502,7 +15721,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14519,7 +15738,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14536,7 +15755,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14553,7 +15772,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14570,7 +15789,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14587,7 +15806,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14604,7 +15823,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14621,7 +15840,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14638,7 +15857,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14655,7 +15874,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14672,7 +15891,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14689,7 +15908,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14706,7 +15925,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14723,7 +15942,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14740,7 +15959,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14757,7 +15976,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14774,7 +15993,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14791,7 +16010,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14808,7 +16027,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14825,7 +16044,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14842,7 +16061,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14859,7 +16078,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14876,7 +16095,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14893,7 +16112,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14910,7 +16129,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14927,7 +16146,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14944,7 +16163,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14961,7 +16180,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14978,7 +16197,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14995,7 +16214,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -15012,7 +16231,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -15029,7 +16248,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -15046,7 +16265,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -15063,7 +16282,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -15080,7 +16299,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -15097,7 +16316,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -15114,7 +16333,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -15131,7 +16350,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -15148,7 +16367,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -15165,7 +16384,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -15182,7 +16401,7 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="27"/>
       <c r="B649" s="5"/>
       <c r="C649" s="13"/>
@@ -15199,7 +16418,7 @@
       <c r="N649" s="15"/>
       <c r="O649" s="3"/>
     </row>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" s="27"/>
       <c r="B650" s="5"/>
       <c r="C650" s="13"/>
@@ -15216,360 +16435,360 @@
       <c r="N650" s="15"/>
       <c r="O650" s="3"/>
     </row>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15577,24 +16796,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D700" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D700" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C702" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C702" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/assert-web-elements/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/web-elements/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{964E1C9F-EC2A-664C-A301-B94FA5E51276}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94774EB-783F-5841-BE57-96E32D694F07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21160" windowWidth="38400" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView xWindow="2440" yWindow="5380" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
-    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
+    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -52,10 +52,16 @@
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -65,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -1600,12 +1606,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>reg-form1.</t>
-  </si>
-  <si>
-    <t>reg-form1-failed-password.</t>
-  </si>
-  <si>
     <t>assert that the form is as we expected</t>
   </si>
   <si>
@@ -1615,34 +1615,39 @@
     <t>assert that the submission failed and that the form demands proper password requirement</t>
   </si>
   <si>
+    <t>${registration outcome}.allPass</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/hotels.com-registration.txt</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>Registration Form - Initial.</t>
+  </si>
+  <si>
+    <t>Registration Form - After Bad Password.</t>
+  </si>
+  <si>
     <t>[WEB(registration outcome) =&gt; 
- type(${reg-form1.email.locator},${reg-form1.email.data})
- type(${reg-form1.password.locator},${reg-form1.password.data})
- type(${reg-form1.first-name.locator},${reg-form1.first-name.data})
- type(${reg-form1.last-name.locator},${reg-form1.last-name.data})
- click(${reg-form1.create-account.locator})
+ type(${Registration Form - Initial.email.locator},${Registration Form - Initial.email.data})
+ type(${Registration Form - Initial.password.locator},${Registration Form - Initial.password.data})
+ type(${Registration Form - Initial.first-name.locator},${Registration Form - Initial.first-name.data})
+ type(${Registration Form - Initial.last-name.locator},${Registration Form - Initial.last-name.data})
+ click(${Registration Form - Initial.create-account.locator})
  wait(2000)
 ]</t>
-  </si>
-  <si>
-    <t>${registration outcome}.allPass</t>
-  </si>
-  <si>
-    <t>$(syspath|out|fullpath)/hotels.com-registration.txt</t>
-  </si>
-  <si>
-    <t>scrollElement(locator,xOffset,yOffset)</t>
-  </si>
-  <si>
-    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1720,209 +1725,14 @@
       <family val="2"/>
     </font>
     <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="64">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1941,348 +1751,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="59">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2320,808 +1790,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3155,7 +1969,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3180,10 +1994,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3218,7 +2032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3253,7 +2067,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3347,21 +2161,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3378,7 +2192,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3430,26 +2244,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC127"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3538,7 +2352,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -3627,7 +2441,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -3710,7 +2524,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -3790,7 +2604,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3858,7 +2672,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3920,7 +2734,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3976,7 +2790,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4029,7 +2843,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4073,7 +2887,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -4111,7 +2925,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4146,7 +2960,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -4181,7 +2995,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4216,7 +3030,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>475</v>
       </c>
@@ -4251,7 +3065,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -4283,7 +3097,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -4315,7 +3129,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>237</v>
       </c>
@@ -4338,7 +3152,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -4358,7 +3172,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>394</v>
       </c>
@@ -4378,7 +3192,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -4398,7 +3212,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>411</v>
       </c>
@@ -4418,7 +3232,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>355</v>
       </c>
@@ -4435,7 +3249,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>395</v>
       </c>
@@ -4452,7 +3266,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -4469,7 +3283,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -4486,7 +3300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -4503,7 +3317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -4520,7 +3334,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>412</v>
       </c>
@@ -4537,7 +3351,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -4551,7 +3365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>414</v>
       </c>
@@ -4562,7 +3376,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>64</v>
       </c>
@@ -4573,7 +3387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>65</v>
       </c>
@@ -4584,7 +3398,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>66</v>
       </c>
@@ -4595,7 +3409,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>67</v>
       </c>
@@ -4606,7 +3420,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>68</v>
       </c>
@@ -4617,7 +3431,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>69</v>
       </c>
@@ -4628,7 +3442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>70</v>
       </c>
@@ -4639,7 +3453,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>71</v>
       </c>
@@ -4650,7 +3464,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>265</v>
       </c>
@@ -4658,7 +3472,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>78</v>
       </c>
@@ -4666,7 +3480,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>210</v>
       </c>
@@ -4674,7 +3488,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>287</v>
       </c>
@@ -4682,7 +3496,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>298</v>
       </c>
@@ -4690,7 +3504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>299</v>
       </c>
@@ -4698,7 +3512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
         <v>341</v>
       </c>
@@ -4706,7 +3520,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
         <v>340</v>
       </c>
@@ -4714,7 +3528,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
         <v>209</v>
       </c>
@@ -4722,7 +3536,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
         <v>318</v>
       </c>
@@ -4730,7 +3544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
         <v>337</v>
       </c>
@@ -4738,7 +3552,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
         <v>366</v>
       </c>
@@ -4746,7 +3560,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
         <v>300</v>
       </c>
@@ -4754,7 +3568,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
         <v>354</v>
       </c>
@@ -4762,7 +3576,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>329</v>
       </c>
@@ -4770,7 +3584,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
         <v>266</v>
       </c>
@@ -4778,7 +3592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
         <v>290</v>
       </c>
@@ -4786,7 +3600,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
         <v>291</v>
       </c>
@@ -4794,7 +3608,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
         <v>292</v>
       </c>
@@ -4802,7 +3616,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
         <v>301</v>
       </c>
@@ -4810,7 +3624,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
         <v>310</v>
       </c>
@@ -4818,7 +3632,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
         <v>335</v>
       </c>
@@ -4826,7 +3640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
         <v>307</v>
       </c>
@@ -4834,7 +3648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
         <v>308</v>
       </c>
@@ -4842,7 +3656,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
         <v>367</v>
       </c>
@@ -4850,7 +3664,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
         <v>368</v>
       </c>
@@ -4858,7 +3672,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
         <v>343</v>
       </c>
@@ -4866,7 +3680,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
         <v>311</v>
       </c>
@@ -4874,7 +3688,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
         <v>267</v>
       </c>
@@ -4882,7 +3696,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
         <v>351</v>
       </c>
@@ -4890,7 +3704,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
         <v>312</v>
       </c>
@@ -4898,7 +3712,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>408</v>
       </c>
@@ -4906,7 +3720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
         <v>302</v>
       </c>
@@ -4914,7 +3728,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>409</v>
       </c>
@@ -4922,7 +3736,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
         <v>260</v>
       </c>
@@ -4930,7 +3744,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
         <v>506</v>
       </c>
@@ -4938,7 +3752,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
         <v>342</v>
       </c>
@@ -4946,7 +3760,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
         <v>278</v>
       </c>
@@ -4954,7 +3768,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
         <v>284</v>
       </c>
@@ -4962,7 +3776,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G78" t="s">
         <v>289</v>
       </c>
@@ -4970,7 +3784,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
         <v>427</v>
       </c>
@@ -4978,7 +3792,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>330</v>
       </c>
@@ -4986,7 +3800,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
         <v>268</v>
       </c>
@@ -4994,7 +3808,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>279</v>
       </c>
@@ -5002,7 +3816,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
         <v>285</v>
       </c>
@@ -5010,7 +3824,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
         <v>274</v>
       </c>
@@ -5018,7 +3832,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>269</v>
       </c>
@@ -5026,7 +3840,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
         <v>286</v>
       </c>
@@ -5034,7 +3848,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>270</v>
       </c>
@@ -5042,7 +3856,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
         <v>271</v>
       </c>
@@ -5050,7 +3864,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
         <v>303</v>
       </c>
@@ -5058,7 +3872,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G90" t="s">
         <v>309</v>
       </c>
@@ -5066,7 +3880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G91" t="s">
         <v>293</v>
       </c>
@@ -5074,7 +3888,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G92" t="s">
         <v>338</v>
       </c>
@@ -5082,7 +3896,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
         <v>275</v>
       </c>
@@ -5090,7 +3904,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
       <c r="G94" t="s">
         <v>276</v>
       </c>
@@ -5098,210 +3912,210 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
       <c r="X95" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
       <c r="X96" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X97" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X99" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X100" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X101" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X103" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X104" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X113" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X114" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X115" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X116" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X117" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X118" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X120" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X121" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X122" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X123" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X124" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X125" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X126" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X127" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O1002"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="25.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="39.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="30.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="54.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="70.0" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
-    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="25" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="54.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="107.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -5319,20 +4133,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-    </row>
-    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -5342,12 +4156,12 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-    </row>
-    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5364,7 +4178,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5409,7 +4223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>507</v>
       </c>
@@ -5434,10 +4248,10 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>54</v>
@@ -5445,8 +4259,8 @@
       <c r="D6" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>511</v>
+      <c r="E6" s="29" t="s">
+        <v>518</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5459,10 +4273,10 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row ht="128" r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>14</v>
@@ -5471,10 +4285,10 @@
         <v>85</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>510</v>
@@ -5488,7 +4302,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row ht="16" r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -5501,7 +4315,7 @@
         <v>509</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5513,10 +4327,10 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row ht="30" r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>54</v>
@@ -5524,8 +4338,8 @@
       <c r="D9" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>512</v>
+      <c r="E9" s="29" t="s">
+        <v>519</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5538,7 +4352,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -5555,7 +4369,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -5572,7 +4386,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -5589,7 +4403,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -5606,7 +4420,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -5623,7 +4437,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -5640,7 +4454,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -5657,7 +4471,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -5674,7 +4488,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -5691,7 +4505,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -5708,7 +4522,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5725,7 +4539,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5742,7 +4556,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5759,7 +4573,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5776,7 +4590,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5793,7 +4607,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5810,7 +4624,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5827,7 +4641,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5844,7 +4658,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5861,7 +4675,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5878,7 +4692,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -5895,7 +4709,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5912,7 +4726,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5929,7 +4743,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5946,7 +4760,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5963,7 +4777,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5980,7 +4794,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5997,7 +4811,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6014,7 +4828,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6031,7 +4845,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6048,7 +4862,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6065,7 +4879,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6082,7 +4896,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6099,7 +4913,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6116,7 +4930,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6133,7 +4947,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6150,7 +4964,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6167,7 +4981,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6184,7 +4998,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6201,7 +5015,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6218,7 +5032,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6235,7 +5049,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -6252,7 +5066,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -6269,7 +5083,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -6286,7 +5100,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -6303,7 +5117,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -6320,7 +5134,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -6337,7 +5151,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -6354,7 +5168,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -6371,7 +5185,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -6388,7 +5202,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -6405,7 +5219,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -6422,7 +5236,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -6439,7 +5253,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -6456,7 +5270,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -6473,7 +5287,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -6490,7 +5304,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -6507,7 +5321,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -6524,7 +5338,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -6541,7 +5355,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -6558,7 +5372,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -6575,7 +5389,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -6592,7 +5406,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -6609,7 +5423,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -6626,7 +5440,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -6643,7 +5457,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -6660,7 +5474,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -6677,7 +5491,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -6694,7 +5508,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -6711,7 +5525,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -6728,7 +5542,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -6745,7 +5559,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6762,7 +5576,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6779,7 +5593,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6796,7 +5610,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6813,7 +5627,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6830,7 +5644,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6847,7 +5661,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6864,7 +5678,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6881,7 +5695,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6898,7 +5712,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6915,7 +5729,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6932,7 +5746,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6949,7 +5763,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6966,7 +5780,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6983,7 +5797,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -7000,7 +5814,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -7017,7 +5831,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -7034,7 +5848,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -7051,7 +5865,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -7068,7 +5882,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -7085,7 +5899,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -7102,7 +5916,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -7119,7 +5933,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -7136,7 +5950,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -7153,7 +5967,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -7170,7 +5984,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -7187,7 +6001,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -7204,7 +6018,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -7221,7 +6035,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -7238,7 +6052,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -7255,7 +6069,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -7272,7 +6086,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -7289,7 +6103,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -7306,7 +6120,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -7323,7 +6137,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -7340,7 +6154,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -7357,7 +6171,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -7374,7 +6188,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -7391,7 +6205,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -7408,7 +6222,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -7425,7 +6239,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -7442,7 +6256,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -7459,7 +6273,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -7476,7 +6290,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -7493,7 +6307,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -7510,7 +6324,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -7527,7 +6341,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -7544,7 +6358,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -7561,7 +6375,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -7578,7 +6392,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -7595,7 +6409,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -7612,7 +6426,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -7629,7 +6443,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -7646,7 +6460,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -7663,7 +6477,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -7680,7 +6494,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -7697,7 +6511,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -7714,7 +6528,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -7731,7 +6545,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -7748,7 +6562,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -7765,7 +6579,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7782,7 +6596,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7799,7 +6613,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7816,7 +6630,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7833,7 +6647,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7850,7 +6664,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7867,7 +6681,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7884,7 +6698,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7901,7 +6715,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7918,7 +6732,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7935,7 +6749,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7952,7 +6766,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7969,7 +6783,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7986,7 +6800,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -8003,7 +6817,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -8020,7 +6834,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -8037,7 +6851,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -8054,7 +6868,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -8071,7 +6885,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -8088,7 +6902,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -8105,7 +6919,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -8122,7 +6936,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -8139,7 +6953,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -8156,7 +6970,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -8173,7 +6987,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -8190,7 +7004,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -8207,7 +7021,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -8224,7 +7038,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -8241,7 +7055,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -8258,7 +7072,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -8275,7 +7089,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -8292,7 +7106,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -8309,7 +7123,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -8326,7 +7140,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -8343,7 +7157,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -8360,7 +7174,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -8377,7 +7191,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -8394,7 +7208,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -8411,7 +7225,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -8428,7 +7242,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -8445,7 +7259,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -8462,7 +7276,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -8479,7 +7293,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -8496,7 +7310,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -8513,7 +7327,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -8530,7 +7344,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -8547,7 +7361,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -8564,7 +7378,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -8581,7 +7395,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -8598,7 +7412,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -8615,7 +7429,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -8632,7 +7446,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -8649,7 +7463,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -8666,7 +7480,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -8683,7 +7497,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -8700,7 +7514,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -8717,7 +7531,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -8734,7 +7548,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -8751,7 +7565,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -8768,7 +7582,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8785,7 +7599,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8802,7 +7616,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8819,7 +7633,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8836,7 +7650,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8853,7 +7667,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8870,7 +7684,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8887,7 +7701,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8904,7 +7718,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8921,7 +7735,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8938,7 +7752,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8955,7 +7769,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8972,7 +7786,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8989,7 +7803,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -9006,7 +7820,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -9023,7 +7837,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -9040,7 +7854,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -9057,7 +7871,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -9074,7 +7888,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -9091,7 +7905,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -9108,7 +7922,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -9125,7 +7939,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -9142,7 +7956,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -9159,7 +7973,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -9176,7 +7990,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -9193,7 +8007,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -9210,7 +8024,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -9227,7 +8041,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -9244,7 +8058,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -9261,7 +8075,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -9278,7 +8092,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -9295,7 +8109,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -9312,7 +8126,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -9329,7 +8143,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -9346,7 +8160,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -9363,7 +8177,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -9380,7 +8194,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -9397,7 +8211,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -9414,7 +8228,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -9431,7 +8245,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -9448,7 +8262,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -9465,7 +8279,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -9482,7 +8296,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -9499,7 +8313,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -9516,7 +8330,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -9533,7 +8347,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -9550,7 +8364,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -9567,7 +8381,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -9584,7 +8398,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -9601,7 +8415,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -9618,7 +8432,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -9635,7 +8449,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -9652,7 +8466,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -9669,7 +8483,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -9686,7 +8500,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -9703,7 +8517,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -9720,7 +8534,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -9737,7 +8551,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -9754,7 +8568,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -9771,7 +8585,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9788,7 +8602,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9805,7 +8619,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9822,7 +8636,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9839,7 +8653,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9856,7 +8670,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9873,7 +8687,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9890,7 +8704,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9907,7 +8721,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9924,7 +8738,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9941,7 +8755,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9958,7 +8772,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9975,7 +8789,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9992,7 +8806,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -10009,7 +8823,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -10026,7 +8840,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -10043,7 +8857,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -10060,7 +8874,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -10077,7 +8891,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -10094,7 +8908,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -10111,7 +8925,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -10128,7 +8942,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -10145,7 +8959,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -10162,7 +8976,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -10179,7 +8993,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -10196,7 +9010,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -10213,7 +9027,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -10230,7 +9044,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -10247,7 +9061,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -10264,7 +9078,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -10281,7 +9095,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -10298,7 +9112,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -10315,7 +9129,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -10332,7 +9146,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -10349,7 +9163,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -10366,7 +9180,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -10383,7 +9197,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -10400,7 +9214,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -10417,7 +9231,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -10434,7 +9248,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -10451,7 +9265,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -10468,7 +9282,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -10485,7 +9299,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -10502,7 +9316,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -10519,7 +9333,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -10536,7 +9350,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -10553,7 +9367,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -10570,7 +9384,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -10587,7 +9401,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -10604,7 +9418,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -10621,7 +9435,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -10638,7 +9452,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -10655,7 +9469,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -10672,7 +9486,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -10689,7 +9503,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -10706,7 +9520,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -10723,7 +9537,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -10740,7 +9554,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -10757,7 +9571,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -10774,7 +9588,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -10791,7 +9605,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -10808,7 +9622,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -10825,7 +9639,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -10842,7 +9656,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -10859,7 +9673,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -10876,7 +9690,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -10893,7 +9707,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -10910,7 +9724,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -10927,7 +9741,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -10944,7 +9758,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -10961,7 +9775,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -10978,7 +9792,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -10995,7 +9809,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -11012,7 +9826,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -11029,7 +9843,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -11046,7 +9860,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -11063,7 +9877,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -11080,7 +9894,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -11097,7 +9911,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -11114,7 +9928,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -11131,7 +9945,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -11148,7 +9962,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -11165,7 +9979,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -11182,7 +9996,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -11199,7 +10013,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -11216,7 +10030,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -11233,7 +10047,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -11250,7 +10064,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -11267,7 +10081,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -11284,7 +10098,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -11301,7 +10115,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -11318,7 +10132,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -11335,7 +10149,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -11352,7 +10166,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -11369,7 +10183,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -11386,7 +10200,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -11403,7 +10217,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -11420,7 +10234,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -11437,7 +10251,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -11454,7 +10268,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -11471,7 +10285,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -11488,7 +10302,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -11505,7 +10319,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -11522,7 +10336,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -11539,7 +10353,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -11556,7 +10370,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -11573,7 +10387,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -11590,7 +10404,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -11607,7 +10421,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -11624,7 +10438,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -11641,7 +10455,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -11658,7 +10472,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -11675,7 +10489,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -11692,7 +10506,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -11709,7 +10523,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -11726,7 +10540,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -11743,7 +10557,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -11760,7 +10574,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -11777,7 +10591,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -11794,7 +10608,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -11811,7 +10625,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -11828,7 +10642,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -11845,7 +10659,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -11862,7 +10676,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -11879,7 +10693,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -11896,7 +10710,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -11913,7 +10727,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -11930,7 +10744,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -11947,7 +10761,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -11964,7 +10778,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -11981,7 +10795,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -11998,7 +10812,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -12015,7 +10829,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -12032,7 +10846,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -12049,7 +10863,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -12066,7 +10880,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -12083,7 +10897,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -12100,7 +10914,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -12117,7 +10931,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -12134,7 +10948,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -12151,7 +10965,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -12168,7 +10982,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -12185,7 +10999,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -12202,7 +11016,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -12219,7 +11033,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -12236,7 +11050,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -12253,7 +11067,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -12270,7 +11084,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -12287,7 +11101,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -12304,7 +11118,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -12321,7 +11135,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -12338,7 +11152,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -12355,7 +11169,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -12372,7 +11186,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -12389,7 +11203,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -12406,7 +11220,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -12423,7 +11237,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -12440,7 +11254,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -12457,7 +11271,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -12474,7 +11288,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -12491,7 +11305,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -12508,7 +11322,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -12525,7 +11339,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -12542,7 +11356,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -12559,7 +11373,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -12576,7 +11390,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -12593,7 +11407,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -12610,7 +11424,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -12627,7 +11441,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -12644,7 +11458,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -12661,7 +11475,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -12678,7 +11492,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -12695,7 +11509,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -12712,7 +11526,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -12729,7 +11543,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -12746,7 +11560,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -12763,7 +11577,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -12780,7 +11594,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -12797,7 +11611,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -12814,7 +11628,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -12831,7 +11645,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -12848,7 +11662,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -12865,7 +11679,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -12882,7 +11696,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -12899,7 +11713,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -12916,7 +11730,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -12933,7 +11747,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -12950,7 +11764,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -12967,7 +11781,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -12984,7 +11798,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -13001,7 +11815,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -13018,7 +11832,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -13035,7 +11849,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -13052,7 +11866,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -13069,7 +11883,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -13086,7 +11900,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -13103,7 +11917,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -13120,7 +11934,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -13137,7 +11951,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -13154,7 +11968,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -13171,7 +11985,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -13188,7 +12002,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -13205,7 +12019,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -13222,7 +12036,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -13239,7 +12053,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -13256,7 +12070,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -13273,7 +12087,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -13290,7 +12104,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -13307,7 +12121,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -13324,7 +12138,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -13341,7 +12155,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -13358,7 +12172,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -13375,7 +12189,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -13392,7 +12206,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -13409,7 +12223,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -13426,7 +12240,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -13443,7 +12257,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -13460,7 +12274,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -13477,7 +12291,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -13494,7 +12308,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -13511,7 +12325,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -13528,7 +12342,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -13545,7 +12359,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -13562,7 +12376,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -13579,7 +12393,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -13596,7 +12410,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -13613,7 +12427,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -13630,7 +12444,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -13647,7 +12461,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -13664,7 +12478,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -13681,7 +12495,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -13698,7 +12512,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -13715,7 +12529,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -13732,7 +12546,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -13749,7 +12563,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -13766,7 +12580,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -13783,7 +12597,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -13800,7 +12614,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -13817,7 +12631,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -13834,7 +12648,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -13851,7 +12665,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -13868,7 +12682,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -13885,7 +12699,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -13902,7 +12716,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -13919,7 +12733,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -13936,7 +12750,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -13953,7 +12767,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -13970,7 +12784,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -13987,7 +12801,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -14004,7 +12818,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -14021,7 +12835,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -14038,7 +12852,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -14055,7 +12869,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -14072,7 +12886,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -14089,7 +12903,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -14106,7 +12920,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -14123,7 +12937,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -14140,7 +12954,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -14157,7 +12971,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -14174,7 +12988,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -14191,7 +13005,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -14208,7 +13022,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -14225,7 +13039,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -14242,7 +13056,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -14259,7 +13073,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -14276,7 +13090,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -14293,7 +13107,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -14310,7 +13124,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -14327,7 +13141,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -14344,7 +13158,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -14361,7 +13175,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -14378,7 +13192,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -14395,7 +13209,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -14412,7 +13226,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -14429,7 +13243,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -14446,7 +13260,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -14463,7 +13277,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -14480,7 +13294,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -14497,7 +13311,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -14514,7 +13328,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -14531,7 +13345,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -14548,7 +13362,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -14565,7 +13379,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -14582,7 +13396,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -14599,7 +13413,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -14616,7 +13430,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -14633,7 +13447,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -14650,7 +13464,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -14667,7 +13481,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -14684,7 +13498,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -14701,7 +13515,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -14718,7 +13532,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -14735,7 +13549,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -14752,7 +13566,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -14769,7 +13583,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -14786,7 +13600,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -14803,7 +13617,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -14820,7 +13634,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -14837,7 +13651,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -14854,7 +13668,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -14871,7 +13685,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -14888,7 +13702,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -14905,7 +13719,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -14922,7 +13736,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -14939,7 +13753,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -14956,7 +13770,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -14973,7 +13787,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -14990,7 +13804,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -15007,7 +13821,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -15024,7 +13838,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -15041,7 +13855,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -15058,7 +13872,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -15075,7 +13889,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -15092,7 +13906,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -15109,7 +13923,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -15126,7 +13940,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -15143,7 +13957,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -15160,7 +13974,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -15177,7 +13991,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -15194,7 +14008,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -15211,7 +14025,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -15228,7 +14042,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -15245,7 +14059,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -15262,7 +14076,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -15279,7 +14093,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -15296,7 +14110,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -15313,7 +14127,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -15330,7 +14144,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -15347,7 +14161,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -15364,7 +14178,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -15381,7 +14195,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -15398,7 +14212,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -15415,7 +14229,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -15432,7 +14246,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -15449,7 +14263,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -15466,7 +14280,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -15483,7 +14297,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -15500,7 +14314,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -15517,7 +14331,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -15534,7 +14348,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -15551,7 +14365,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -15568,7 +14382,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -15585,7 +14399,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -15602,7 +14416,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -15619,7 +14433,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -15636,7 +14450,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -15653,7 +14467,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -15670,7 +14484,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -15687,7 +14501,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -15704,7 +14518,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -15721,7 +14535,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -15738,7 +14552,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -15755,7 +14569,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -15772,7 +14586,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -15789,7 +14603,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -15806,7 +14620,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -15823,7 +14637,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -15840,7 +14654,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -15857,7 +14671,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -15874,7 +14688,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -15891,7 +14705,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -15908,7 +14722,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -15925,7 +14739,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -15942,7 +14756,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -15959,7 +14773,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -15976,7 +14790,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -15993,7 +14807,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -16010,7 +14824,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -16027,7 +14841,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -16044,7 +14858,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -16061,7 +14875,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -16078,7 +14892,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -16095,7 +14909,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -16112,7 +14926,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -16129,7 +14943,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -16146,7 +14960,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -16163,7 +14977,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -16180,7 +14994,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -16197,7 +15011,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -16214,7 +15028,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -16231,7 +15045,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -16248,7 +15062,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -16265,7 +15079,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -16282,7 +15096,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -16299,7 +15113,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -16316,7 +15130,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -16333,7 +15147,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -16350,7 +15164,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -16367,7 +15181,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -16384,7 +15198,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -16401,7 +15215,7 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="27"/>
       <c r="B649" s="5"/>
       <c r="C649" s="13"/>
@@ -16418,7 +15232,7 @@
       <c r="N649" s="15"/>
       <c r="O649" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="27"/>
       <c r="B650" s="5"/>
       <c r="C650" s="13"/>
@@ -16435,360 +15249,360 @@
       <c r="N650" s="15"/>
       <c r="O650" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -16796,24 +15610,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D700" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D700" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C702" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C702" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/web-elements/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C94774EB-783F-5841-BE57-96E32D694F07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BE7BA392-9878-B145-A13B-D94D7E159740}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="2440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5380"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -28,9 +28,10 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -51,7 +52,6 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="535">
   <si>
     <t>description</t>
   </si>
@@ -1664,13 +1664,34 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1956,8 +1977,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="64">
+  <fills count="154">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2316,8 +2640,518 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -2919,6 +3753,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2926,7 +4606,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3107,52 +4787,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="50" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="81" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="84" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="96" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="99" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="105" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="66" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="111" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="114" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="126" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="129" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="135" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="141" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="144" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3873,7 +5697,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -3941,7 +5765,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -4000,7 +5824,7 @@
         <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -4058,6 +5882,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>530</v>
+      </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
@@ -4111,6 +5938,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>533</v>
+      </c>
       <c r="Q9" t="s">
         <v>92</v>
       </c>
@@ -4152,6 +5982,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>525</v>
+      </c>
       <c r="Q10" t="s">
         <v>435</v>
       </c>
@@ -4190,6 +6023,9 @@
       <c r="M11" t="s">
         <v>469</v>
       </c>
+      <c r="N11" t="s">
+        <v>526</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -4225,6 +6061,9 @@
       <c r="M12" t="s">
         <v>434</v>
       </c>
+      <c r="N12" t="s">
+        <v>527</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -4540,7 +6379,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>531</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>
@@ -4557,7 +6396,7 @@
         <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
         <v>111</v>
@@ -4574,7 +6413,7 @@
         <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="Y27" t="s">
         <v>112</v>
@@ -4591,7 +6430,7 @@
         <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>325</v>
@@ -4606,6 +6445,9 @@
       </c>
       <c r="G29" t="s">
         <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>113</v>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1685,13 +1685,16 @@
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2280,8 +2283,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="154">
+  <fills count="184">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3150,8 +3254,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4599,6 +4873,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4606,7 +5162,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4931,52 +5487,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="126" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="126" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="129" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="129" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="135" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="135" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="141" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="141" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="144" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="144" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="156" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="159" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="162" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="165" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="171" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="174" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5507,7 +6111,7 @@
         <v>455</v>
       </c>
       <c r="D3" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
         <v>456</v>
@@ -5590,7 +6194,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -5673,7 +6277,7 @@
         <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
         <v>457</v>
@@ -5742,6 +6346,9 @@
       </c>
       <c r="B6" t="s">
         <v>374</v>
+      </c>
+      <c r="D6" t="s">
+        <v>479</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4842" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1688,13 +1688,16 @@
   <si>
     <t>purgeQueue(profile,queue,var)</t>
   </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2384,8 +2387,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="184">
+  <fills count="244">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3424,8 +3629,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5155,6 +5700,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5162,7 +6271,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5535,52 +6644,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="156" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="156" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="159" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="159" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="162" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="162" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="165" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="165" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="171" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="171" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="174" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="174" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="186" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="189" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="192" fontId="111" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="195" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="114" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="201" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="204" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="207" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="207" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="216" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="219" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="222" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="225" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="231" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="234" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="237" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="237" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6986,7 +8191,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -20,17 +20,17 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -45,13 +45,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4842" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7046" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1691,13 +1692,67 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="204" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2589,8 +2644,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="244">
+  <fills count="352">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3969,8 +4428,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -6264,6 +7335,1310 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6271,7 +8646,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6740,52 +9115,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="216" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="216" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="219" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="219" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="222" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="222" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="225" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="225" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="231" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="231" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="234" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="234" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="237" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="237" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="237" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="237" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="246" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="249" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="252" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="255" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="146" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="261" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="252" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="264" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="264" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="273" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="276" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="279" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="282" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="162" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="288" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="279" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="291" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="291" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="300" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="303" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="306" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="309" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="315" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="306" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="318" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="318" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="327" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="330" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="336" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="342" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="345" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7110,7 +9677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7195,21 +9762,24 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7287,21 +9857,24 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -7372,22 +9945,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7455,22 +10028,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7496,6 +10069,9 @@
       <c r="H5" t="s">
         <v>458</v>
       </c>
+      <c r="I5" t="s">
+        <v>539</v>
+      </c>
       <c r="J5" t="s">
         <v>349</v>
       </c>
@@ -7526,22 +10102,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>353</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7594,22 +10170,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7629,6 +10205,9 @@
       <c r="H7" t="s">
         <v>445</v>
       </c>
+      <c r="J7" t="s">
+        <v>540</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -7653,23 +10232,23 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
-        <v>230</v>
+      <c r="AE7" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="8">
@@ -7709,23 +10288,23 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
-        <v>231</v>
+      <c r="AE8" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="9">
@@ -7765,14 +10344,14 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
-        <v>232</v>
+      <c r="AE9" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="10">
@@ -7806,14 +10385,14 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
-        <v>472</v>
+      <c r="AE10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -7844,14 +10423,14 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
-        <v>498</v>
+      <c r="AE11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -7871,7 +10450,7 @@
         <v>388</v>
       </c>
       <c r="M12" t="s">
-        <v>434</v>
+        <v>541</v>
       </c>
       <c r="N12" t="s">
         <v>527</v>
@@ -7882,14 +10461,14 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
-        <v>499</v>
+      <c r="AE12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -7909,7 +10488,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -7917,14 +10496,14 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
-        <v>500</v>
+      <c r="AE13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="14">
@@ -7944,7 +10523,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -7952,14 +10531,14 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
-        <v>501</v>
+      <c r="AE14" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="15">
@@ -7976,7 +10555,7 @@
         <v>485</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>489</v>
@@ -7984,14 +10563,14 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
-        <v>473</v>
+      <c r="AE15" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="16">
@@ -8008,7 +10587,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>490</v>
@@ -8016,14 +10595,14 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
-        <v>502</v>
+      <c r="AE16" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -8039,14 +10618,17 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
         <v>491</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>465</v>
       </c>
-      <c r="AD17" t="s">
-        <v>503</v>
+      <c r="AE17" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="18">
@@ -8062,11 +10644,11 @@
       <c r="K18" t="s">
         <v>461</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
-        <v>504</v>
+      <c r="AE18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19">
@@ -8082,11 +10664,11 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
-        <v>233</v>
+      <c r="AE19" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="20">
@@ -8102,11 +10684,11 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
-        <v>234</v>
+      <c r="AE20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="21">
@@ -8122,11 +10704,11 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
-        <v>235</v>
+      <c r="AE21" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="22">
@@ -8134,7 +10716,7 @@
         <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>551</v>
       </c>
       <c r="G22" t="s">
         <v>297</v>
@@ -8142,8 +10724,11 @@
       <c r="K22" t="s">
         <v>468</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>492</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -8151,7 +10736,7 @@
         <v>355</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>288</v>
@@ -8159,8 +10744,11 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="24">
@@ -8168,7 +10756,7 @@
         <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
         <v>277</v>
@@ -8176,16 +10764,19 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>109</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -8193,16 +10784,19 @@
       <c r="K25" t="s">
         <v>536</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="G26" t="s">
         <v>280</v>
@@ -8210,16 +10804,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>264</v>
@@ -8227,16 +10824,19 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>466</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>281</v>
@@ -8244,16 +10844,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G29" t="s">
         <v>282</v>
@@ -8261,722 +10861,747 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>505</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Y39" t="s">
-        <v>391</v>
+      <c r="Z39" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
-        <v>120</v>
+      <c r="Z40" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Y41" t="s">
-        <v>121</v>
+      <c r="Z41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>122</v>
+        <v>553</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>123</v>
+        <v>287</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>124</v>
+        <v>298</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>125</v>
+        <v>299</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>437</v>
+        <v>341</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>211</v>
+        <v>340</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>77</v>
+        <v>209</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>126</v>
+        <v>318</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>127</v>
+        <v>337</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>128</v>
+        <v>366</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>493</v>
+        <v>300</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>462</v>
+        <v>354</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>129</v>
+        <v>329</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>344</v>
+        <v>266</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>463</v>
+        <v>290</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>130</v>
+        <v>291</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>131</v>
+        <v>554</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>132</v>
+        <v>292</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>133</v>
+        <v>301</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>134</v>
+        <v>310</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>135</v>
+        <v>335</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>136</v>
+        <v>307</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>438</v>
+        <v>308</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>471</v>
+        <v>367</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>212</v>
+        <v>368</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>387</v>
+        <v>343</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>439</v>
+        <v>311</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>137</v>
+        <v>267</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>138</v>
+        <v>537</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>139</v>
+        <v>312</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>140</v>
+        <v>408</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>195</v>
+        <v>302</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>506</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>196</v>
+        <v>409</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>451</v>
+        <v>260</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>464</v>
+        <v>506</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>141</v>
+        <v>342</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>142</v>
+        <v>278</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>143</v>
+        <v>284</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>494</v>
+        <v>289</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>144</v>
+        <v>427</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>145</v>
+        <v>330</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>197</v>
+        <v>268</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>495</v>
+        <v>279</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>198</v>
+        <v>285</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>452</v>
+        <v>274</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>199</v>
+        <v>538</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>200</v>
+        <v>269</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>213</v>
+        <v>286</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>146</v>
+        <v>270</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>201</v>
+        <v>271</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>440</v>
+        <v>303</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>441</v>
+        <v>309</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -45,13 +45,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7046" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7597" uniqueCount="556">
   <si>
     <t>description</t>
   </si>
@@ -1746,13 +1746,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="204" x14ac:knownFonts="1">
+  <fonts count="220" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3048,8 +3051,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="352">
+  <fills count="379">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5040,8 +5144,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -8639,6 +8896,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8646,7 +9229,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9307,52 +9890,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="327" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="327" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="330" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="330" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="333" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="336" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="336" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="342" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="342" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="345" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="345" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="354" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="360" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="363" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="369" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="360" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9677,7 +10308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9762,24 +10393,21 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="AD1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9857,24 +10485,21 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
-        <v>552</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="AD2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -9945,22 +10570,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10028,22 +10653,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
+      <c r="Y4" t="s">
+        <v>352</v>
+      </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="AD4" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10102,22 +10727,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
+      <c r="Y5" t="s">
+        <v>353</v>
+      </c>
       <c r="Z5" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10170,22 +10795,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>443</v>
       </c>
       <c r="AA6" t="s">
-        <v>443</v>
+        <v>178</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD6" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10232,22 +10857,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AA7" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD7" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE7" t="s">
         <v>544</v>
       </c>
     </row>
@@ -10288,22 +10913,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD8" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE8" t="s">
         <v>545</v>
       </c>
     </row>
@@ -10344,13 +10969,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>546</v>
       </c>
     </row>
@@ -10385,13 +11010,13 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10423,13 +11048,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10461,13 +11086,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10496,13 +11121,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>472</v>
       </c>
     </row>
@@ -10531,13 +11156,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>498</v>
       </c>
     </row>
@@ -10563,13 +11188,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>499</v>
       </c>
     </row>
@@ -10587,7 +11212,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>555</v>
       </c>
       <c r="Q16" t="s">
         <v>490</v>
@@ -10595,13 +11220,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10619,15 +11244,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>491</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>465</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>501</v>
       </c>
     </row>
@@ -10644,10 +11269,13 @@
       <c r="K18" t="s">
         <v>461</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10664,10 +11292,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>502</v>
       </c>
     </row>
@@ -10684,10 +11312,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>503</v>
       </c>
     </row>
@@ -10704,10 +11332,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>504</v>
       </c>
     </row>
@@ -10724,10 +11352,10 @@
       <c r="K22" t="s">
         <v>468</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>492</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10744,10 +11372,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>547</v>
       </c>
     </row>
@@ -10764,16 +11392,16 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -10784,16 +11412,16 @@
       <c r="K25" t="s">
         <v>536</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>447</v>
@@ -10804,16 +11432,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>223</v>
@@ -10824,16 +11452,16 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>224</v>
@@ -10844,13 +11472,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="E29" t="s">
         <v>466</v>
@@ -10861,13 +11489,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
         <v>467</v>
@@ -10875,21 +11503,18 @@
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
       <c r="E31" t="s">
         <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10900,7 +11525,7 @@
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10911,7 +11536,7 @@
       <c r="G33" t="s">
         <v>505</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10922,7 +11547,7 @@
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10933,7 +11558,7 @@
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -10944,7 +11569,7 @@
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10955,7 +11580,7 @@
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10966,7 +11591,7 @@
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>436</v>
       </c>
     </row>
@@ -10977,7 +11602,7 @@
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>542</v>
       </c>
     </row>
@@ -10985,7 +11610,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>391</v>
       </c>
     </row>
@@ -10993,7 +11618,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11001,7 +11626,7 @@
       <c r="G42" t="s">
         <v>553</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11009,7 +11634,7 @@
       <c r="G43" t="s">
         <v>287</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11017,7 +11642,7 @@
       <c r="G44" t="s">
         <v>298</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11025,7 +11650,7 @@
       <c r="G45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -11033,7 +11658,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11041,7 +11666,7 @@
       <c r="G47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>437</v>
       </c>
     </row>
@@ -11049,7 +11674,7 @@
       <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11057,7 +11682,7 @@
       <c r="G49" t="s">
         <v>318</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -11065,7 +11690,7 @@
       <c r="G50" t="s">
         <v>337</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>543</v>
       </c>
     </row>
@@ -11073,7 +11698,7 @@
       <c r="G51" t="s">
         <v>366</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11081,7 +11706,7 @@
       <c r="G52" t="s">
         <v>300</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11089,7 +11714,7 @@
       <c r="G53" t="s">
         <v>354</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -11097,7 +11722,7 @@
       <c r="G54" t="s">
         <v>329</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>493</v>
       </c>
     </row>
@@ -11105,7 +11730,7 @@
       <c r="G55" t="s">
         <v>266</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>462</v>
       </c>
     </row>
@@ -11113,7 +11738,7 @@
       <c r="G56" t="s">
         <v>290</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11121,7 +11746,7 @@
       <c r="G57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -11129,7 +11754,7 @@
       <c r="G58" t="s">
         <v>554</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>463</v>
       </c>
     </row>
@@ -11137,7 +11762,7 @@
       <c r="G59" t="s">
         <v>292</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11145,7 +11770,7 @@
       <c r="G60" t="s">
         <v>301</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11153,7 +11778,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11161,7 +11786,7 @@
       <c r="G62" t="s">
         <v>335</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11169,7 +11794,7 @@
       <c r="G63" t="s">
         <v>307</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -11177,7 +11802,7 @@
       <c r="G64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11185,7 +11810,7 @@
       <c r="G65" t="s">
         <v>367</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11193,7 +11818,7 @@
       <c r="G66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -11201,7 +11826,7 @@
       <c r="G67" t="s">
         <v>343</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11209,7 +11834,7 @@
       <c r="G68" t="s">
         <v>311</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11217,7 +11842,7 @@
       <c r="G69" t="s">
         <v>267</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -11225,7 +11850,7 @@
       <c r="G70" t="s">
         <v>537</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -11233,7 +11858,7 @@
       <c r="G71" t="s">
         <v>312</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11241,7 +11866,7 @@
       <c r="G72" t="s">
         <v>408</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11249,7 +11874,7 @@
       <c r="G73" t="s">
         <v>302</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11257,7 +11882,7 @@
       <c r="G74" t="s">
         <v>409</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -11265,7 +11890,7 @@
       <c r="G75" t="s">
         <v>260</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -11273,7 +11898,7 @@
       <c r="G76" t="s">
         <v>506</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11281,7 +11906,7 @@
       <c r="G77" t="s">
         <v>342</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>451</v>
       </c>
     </row>
@@ -11289,7 +11914,7 @@
       <c r="G78" t="s">
         <v>278</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11297,7 +11922,7 @@
       <c r="G79" t="s">
         <v>284</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -11305,7 +11930,7 @@
       <c r="G80" t="s">
         <v>289</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11313,7 +11938,7 @@
       <c r="G81" t="s">
         <v>427</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -11321,7 +11946,7 @@
       <c r="G82" t="s">
         <v>330</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>494</v>
       </c>
     </row>
@@ -11329,7 +11954,7 @@
       <c r="G83" t="s">
         <v>268</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -11337,7 +11962,7 @@
       <c r="G84" t="s">
         <v>279</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -11345,7 +11970,7 @@
       <c r="G85" t="s">
         <v>285</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -11353,7 +11978,7 @@
       <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>495</v>
       </c>
     </row>
@@ -11361,7 +11986,7 @@
       <c r="G87" t="s">
         <v>538</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11369,7 +11994,7 @@
       <c r="G88" t="s">
         <v>269</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>452</v>
       </c>
     </row>
@@ -11377,7 +12002,7 @@
       <c r="G89" t="s">
         <v>286</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -11385,7 +12010,7 @@
       <c r="G90" t="s">
         <v>270</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -11393,7 +12018,7 @@
       <c r="G91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -11401,7 +12026,7 @@
       <c r="G92" t="s">
         <v>303</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11409,7 +12034,7 @@
       <c r="G93" t="s">
         <v>309</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11417,7 +12042,7 @@
       <c r="G94" t="s">
         <v>293</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>440</v>
       </c>
     </row>
@@ -11425,7 +12050,7 @@
       <c r="G95" t="s">
         <v>338</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>441</v>
       </c>
     </row>
@@ -11433,7 +12058,7 @@
       <c r="G96" t="s">
         <v>275</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11441,167 +12066,167 @@
       <c r="G97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7597" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9264" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1749,13 +1749,31 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="220" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3152,8 +3170,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="379">
+  <fills count="460">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5297,8 +5618,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="387">
+  <borders count="483">
     <border>
       <left/>
       <right/>
@@ -9222,6 +10002,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9229,7 +10987,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9938,52 +11696,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="354" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="354" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="360" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="360" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="363" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="363" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="369" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="369" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="360" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="360" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="381" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="384" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="387" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="390" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="396" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="387" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="408" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="414" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="426" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="426" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="435" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="438" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="441" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="444" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="450" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="441" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="453" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="453" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10308,7 +12210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10689,7 +12591,7 @@
         <v>431</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>559</v>
       </c>
       <c r="H5" t="s">
         <v>458</v>
@@ -10763,7 +12665,7 @@
         <v>480</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>446</v>
@@ -10825,7 +12727,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
         <v>445</v>
@@ -10887,7 +12789,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -10943,7 +12845,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -10987,7 +12889,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>450</v>
@@ -11028,7 +12930,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -11066,7 +12968,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -11104,7 +13006,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -11139,7 +13041,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -11174,7 +13076,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>485</v>
@@ -11206,7 +13108,7 @@
         <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -11238,7 +13140,7 @@
         <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -11264,7 +13166,7 @@
         <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>461</v>
@@ -11287,7 +13189,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -11307,7 +13209,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -11327,7 +13229,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>378</v>
@@ -11347,7 +13249,7 @@
         <v>551</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>468</v>
@@ -11367,7 +13269,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -11387,13 +13289,13 @@
         <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>390</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>556</v>
       </c>
       <c r="AD24" t="s">
         <v>548</v>
@@ -11407,13 +13309,13 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>536</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD25" t="s">
         <v>549</v>
@@ -11427,13 +13329,13 @@
         <v>447</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="s">
         <v>234</v>
@@ -11447,13 +13349,13 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>432</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD27" t="s">
         <v>235</v>
@@ -11467,13 +13369,13 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -11484,13 +13386,13 @@
         <v>466</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -11501,10 +13403,10 @@
         <v>467</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -11512,10 +13414,10 @@
         <v>414</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -11523,10 +13425,10 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -11534,10 +13436,10 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>505</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -11545,10 +13447,10 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>505</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35">
@@ -11556,10 +13458,10 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -11567,10 +13469,10 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -11578,10 +13480,10 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -11589,10 +13491,10 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -11600,633 +13502,661 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
-        <v>542</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>120</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>553</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>287</v>
+        <v>553</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
-        <v>543</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
-        <v>127</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s">
-        <v>493</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
-        <v>129</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>554</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>292</v>
+        <v>554</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
-        <v>471</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>537</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
-        <v>439</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>312</v>
+        <v>537</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="Y73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>506</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>342</v>
+        <v>506</v>
       </c>
       <c r="Y77" t="s">
-        <v>451</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
-        <v>142</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="Y82" t="s">
-        <v>494</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
-        <v>145</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
-        <v>495</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>538</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="Y88" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
-        <v>200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>201</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y94" t="s">
-        <v>440</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y95" t="s">
-        <v>441</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>516</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>517</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>381</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>442</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>558</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9264" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10386" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1767,13 +1768,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="300" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3473,8 +3492,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="460">
+  <fills count="514">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6077,8 +6298,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="483">
+  <borders count="547">
     <border>
       <left/>
       <right/>
@@ -10980,6 +11507,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10987,7 +12166,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11840,52 +13019,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="435" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="435" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="438" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="438" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="441" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="441" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="444" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="444" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="450" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="450" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="441" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="441" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="453" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="453" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="453" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="453" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="462" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="465" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="468" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="471" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="274" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="477" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="468" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="480" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="480" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="489" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="492" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="495" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="498" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="504" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="495" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="507" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="507" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12210,7 +13485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12235,81 +13510,84 @@
         <v>474</v>
       </c>
       <c r="E1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>521</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>475</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>394</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>410</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>411</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>395</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12327,81 +13605,84 @@
         <v>476</v>
       </c>
       <c r="E2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>448</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>459</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>313</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>382</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>433</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>522</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>486</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>415</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>428</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>396</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>417</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>418</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>379</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>405</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12418,76 +13699,76 @@
       <c r="D3" t="s">
         <v>535</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>363</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>481</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>332</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>523</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>487</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>429</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>397</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>419</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>380</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12501,82 +13782,82 @@
       <c r="D4" t="s">
         <v>477</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>385</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>449</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>482</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>348</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>236</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>333</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>524</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>488</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>420</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>356</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -12584,73 +13865,73 @@
       <c r="D5" t="s">
         <v>478</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>457</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>431</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>559</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>539</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>349</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>460</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>534</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>399</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>421</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
-        <v>353</v>
-      </c>
       <c r="Z5" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>374</v>
@@ -12658,1505 +13939,1513 @@
       <c r="D6" t="s">
         <v>479</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>480</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>334</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>446</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>346</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>528</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>389</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>400</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>375</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>386</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>445</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>540</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>313</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>529</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>416</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>401</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>316</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>364</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>326</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>483</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>530</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>402</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>377</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>365</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>327</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>533</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>403</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>304</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>450</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>525</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>435</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>565</v>
+      </c>
+      <c r="H11" t="s">
         <v>350</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>484</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>469</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>526</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>317</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>272</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>321</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>388</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>541</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>527</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" t="s">
         <v>339</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>261</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>434</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>521</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>314</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>323</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>470</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
-      </c>
-      <c r="E15" t="s">
+        <v>521</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>262</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>485</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>489</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" t="s">
         <v>383</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>263</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>555</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>490</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>384</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>315</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>491</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>465</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>413</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>461</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>294</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" t="s">
         <v>254</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>295</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
         <v>551</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>296</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>468</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>492</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>297</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>395</v>
-      </c>
-      <c r="E24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" t="s">
         <v>319</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>288</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>556</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>277</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>536</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>447</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>223</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>280</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>264</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>466</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>281</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" t="s">
+        <v>467</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
-        <v>467</v>
-      </c>
-      <c r="G30" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>414</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>505</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>542</v>
+      <c r="Z41" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>553</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>366</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>354</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>554</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>367</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>368</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>537</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>408</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>409</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>427</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>538</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10386" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11511" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1786,13 +1786,28 @@
   <si>
     <t>assertTextNotContain(locator,text)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="300" x14ac:knownFonts="1">
+  <fonts count="332" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3694,8 +3709,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="514">
+  <fills count="568">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6604,8 +6821,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="547">
+  <borders count="611">
     <border>
       <left/>
       <right/>
@@ -12159,6 +12682,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12166,7 +13341,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13115,52 +14290,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="489" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="489" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="492" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="492" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="495" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="495" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="498" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="498" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="290" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="504" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="504" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="495" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="495" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="507" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="507" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="507" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="507" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="516" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="519" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="522" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="525" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="306" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="531" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="522" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="534" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="534" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="543" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="546" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="549" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="552" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="558" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="549" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="561" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="561" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13801,7 +15072,7 @@
         <v>348</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>571</v>
       </c>
       <c r="M4" t="s">
         <v>333</v>
@@ -13837,7 +15108,7 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>572</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -13884,7 +15155,7 @@
         <v>349</v>
       </c>
       <c r="L5" t="s">
-        <v>460</v>
+        <v>236</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -13955,7 +15226,7 @@
         <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>460</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -14017,7 +15288,7 @@
         <v>540</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>313</v>
@@ -14076,7 +15347,7 @@
         <v>326</v>
       </c>
       <c r="L8" t="s">
-        <v>483</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -14132,7 +15403,7 @@
         <v>327</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -14176,7 +15447,7 @@
         <v>450</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -14217,7 +15488,7 @@
         <v>320</v>
       </c>
       <c r="L11" t="s">
-        <v>484</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>469</v>
@@ -14255,7 +15526,7 @@
         <v>321</v>
       </c>
       <c r="L12" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="N12" t="s">
         <v>541</v>
@@ -14293,7 +15564,7 @@
         <v>322</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="N13" t="s">
         <v>434</v>
@@ -14328,7 +15599,7 @@
         <v>323</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>470</v>
@@ -14360,7 +15631,7 @@
         <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>485</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -14392,7 +15663,7 @@
         <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="N16" t="s">
         <v>555</v>
@@ -14424,7 +15695,7 @@
         <v>315</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -14450,7 +15721,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -14467,13 +15738,13 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>570</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -14487,13 +15758,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -14507,13 +15778,13 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>378</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -14527,13 +15798,13 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>551</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
       </c>
       <c r="L22" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
       <c r="Z22" t="s">
         <v>492</v>
@@ -14547,13 +15818,13 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>551</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>468</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -14567,13 +15838,13 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
       </c>
       <c r="L24" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>556</v>
@@ -14587,13 +15858,13 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>536</v>
+        <v>390</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -14607,13 +15878,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>536</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -14627,13 +15898,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -14647,13 +15918,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -14664,13 +15935,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>466</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>325</v>
@@ -14681,10 +15952,13 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -14695,7 +15969,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -14706,7 +15980,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -14717,7 +15991,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -14728,7 +16002,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -14739,7 +16013,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -14750,7 +16024,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -14761,7 +16035,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -14772,7 +16046,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -14783,7 +16057,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -14793,6 +16067,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11511" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12076" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1801,13 +1801,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="332" x14ac:knownFonts="1">
+  <fonts count="348" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3911,8 +3920,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="568">
+  <fills count="595">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7127,8 +7237,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="611">
+  <borders count="643">
     <border>
       <left/>
       <right/>
@@ -13334,6 +13597,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13341,7 +13930,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="374">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14386,52 +14975,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="543" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="543" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="546" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="546" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="549" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="549" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="552" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="552" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="558" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="558" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="549" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="549" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="561" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="561" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="561" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="561" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="570" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="573" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="576" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="579" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="585" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="576" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="588" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="588" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14756,7 +15393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15222,6 +15859,9 @@
       <c r="I6" t="s">
         <v>446</v>
       </c>
+      <c r="J6" t="s">
+        <v>573</v>
+      </c>
       <c r="K6" t="s">
         <v>346</v>
       </c>
@@ -15738,7 +16378,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>570</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -15758,7 +16398,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -15778,7 +16418,7 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
@@ -15798,7 +16438,7 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>551</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -15818,7 +16458,7 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>551</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -15838,7 +16478,7 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -15858,7 +16498,7 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -15878,7 +16518,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>447</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -15898,7 +16538,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
@@ -15918,7 +16558,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
@@ -15935,7 +16575,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
@@ -15952,7 +16592,7 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
@@ -15969,7 +16609,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -15980,7 +16620,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -15991,7 +16631,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -16002,7 +16642,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -16013,7 +16653,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -16024,7 +16664,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -16035,7 +16675,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -16046,7 +16686,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -16057,7 +16697,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -16067,9 +16707,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
@@ -16543,186 +17180,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>441</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>496</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>564</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>558</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>558</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/web-elements/artifact/script/web-expression.xlsx
+++ b/examples/web-elements/artifact/script/web-expression.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12076" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12641" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1816,7 +1816,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="348" x14ac:knownFonts="1">
+  <fonts count="364" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4021,8 +4021,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="595">
+  <fills count="622">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7390,8 +7491,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="643">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13923,6 +14177,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13930,7 +14510,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="390">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15023,52 +15603,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="570" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="570" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="573" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="573" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="576" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="576" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="579" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="579" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="338" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="585" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="585" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="576" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="576" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="588" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="588" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="588" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="588" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="597" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="600" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="603" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="606" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="612" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="603" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="615" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="615" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
